--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobake\BinarySample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536DE4B-B38A-48D1-A8B6-A462B46E6153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A8331-745A-4BE0-8C2B-1ACCFA87F4A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-110" windowWidth="23810" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="-110" windowWidth="23810" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>HELLO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>WORLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -380,4 +393,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91583B2B-C1F8-4FD7-834F-EAB69F25A49E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobake\BinarySample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A8331-745A-4BE0-8C2B-1ACCFA87F4A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D425485A-D2A1-4EEB-B43E-09083638B192}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="-110" windowWidth="23810" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HELLO</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -370,22 +374,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -400,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
@@ -418,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobake\BinarySample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D425485A-D2A1-4EEB-B43E-09083638B192}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2025782-0806-472B-9D3D-51B690D3B8C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="-110" windowWidth="23810" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91583B2B-C1F8-4FD7-834F-EAB69F25A49E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
@@ -436,8 +436,24 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>